--- a/artfynd/A 42090-2024 artfynd.xlsx
+++ b/artfynd/A 42090-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131143924</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>131143940</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>131143904</v>
       </c>
       <c r="B4" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>131143936</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>131143939</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>131143905</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>131143938</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>131143909</v>
       </c>
       <c r="B9" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>131143941</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>131143923</v>
       </c>
       <c r="B11" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 42090-2024 artfynd.xlsx
+++ b/artfynd/A 42090-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131143924</v>
       </c>
       <c r="B2" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>131143940</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>131143904</v>
       </c>
       <c r="B4" t="n">
-        <v>91772</v>
+        <v>91773</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>131143936</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>131143939</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>131143905</v>
       </c>
       <c r="B7" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>131143938</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>131143909</v>
       </c>
       <c r="B9" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>131143941</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>131143923</v>
       </c>
       <c r="B11" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
